--- a/examples/sources/data/unsolved/to_schedule/2019-03-20.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-20.xlsx
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>43544</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>43544</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N174">
         <v>1</v>
@@ -8897,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="N181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O181" s="2">
         <v>43544</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N182">
         <v>1</v>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="N255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O255" s="2">
         <v>43544</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256">
         <v>1</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257">
         <v>1</v>
@@ -12135,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="N258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O258" s="2">
         <v>43544</v>
